--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,9 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮民生段00690000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮南光段05880003地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮南光段05880004地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段一小段04120000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段一小段03820000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之124</t>
+  </si>
+  <si>
+    <t>蔡煌瑯</t>
+  </si>
+  <si>
+    <t>王琴賀</t>
+  </si>
+  <si>
+    <t>75年06月05日</t>
+  </si>
+  <si>
+    <t>91年08月30日</t>
+  </si>
+  <si>
+    <t>98年01月16日</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-17</t>
+  </si>
+  <si>
+    <t>tmpc9fc1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,85 +141,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣埔里鎮民生段0069-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮南光段0588-0003 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮南光段0588-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段一小段 0412-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段一小段 0382-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 124</t>
-  </si>
-  <si>
-    <t>蔡煌瑯</t>
-  </si>
-  <si>
-    <t>王琴賀</t>
-  </si>
-  <si>
-    <t>75年06月 05日</t>
-  </si>
-  <si>
-    <t>91年08月 30日</t>
-  </si>
-  <si>
-    <t>98年01月 16日</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮南光段00347-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段00924-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段00978-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段00979-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 126</t>
-  </si>
-  <si>
-    <t>1，346，067</t>
+    <t>南投縣埔里鎮南光段00347000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段00924000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段00978000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段00979000建號</t>
+  </si>
+  <si>
+    <t>10000分之126</t>
+  </si>
+  <si>
+    <t>1346067</t>
   </si>
   <si>
     <t>廠牌型號</t>
   </si>
   <si>
-    <t>汽缸容_量</t>
+    <t>汽缸容量</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>自用小汽車（TOYOTA型號： ALTIS)</t>
-  </si>
-  <si>
-    <t>97年02月 29日</t>
+    <t>自用小汽車（TOYOTA型號：ALTIS)</t>
+  </si>
+  <si>
+    <t>97年02月29日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -156,7 +207,7 @@
     <t>項</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -165,7 +216,7 @@
     <t>新光人壽</t>
   </si>
   <si>
-    <t>保 險名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>世紀理財變額萬能終身壽險</t>
@@ -177,16 +228,16 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備 註</t>
-  </si>
-  <si>
-    <t>保單號碼:649700013402自 96年1月11日起迄今，20年 期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>保單號碼:649700007213自 96年1月11日起迄今，20年 期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>保單號碼：1025099898自101 年1月18日起迄今，6年期</t>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>保單號碼:649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
+  </si>
+  <si>
+    <t>保單號碼:649700007213自96年1月11日起迄今20年期(可隨時終止）</t>
+  </si>
+  <si>
+    <t>保單號碼：1025099898自101年1月18日起迄今6年期</t>
   </si>
   <si>
     <t>債務人</t>
@@ -207,22 +258,22 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>台中商業銀行埔里分行 南投縣埔里鎮西康路62號</t>
-  </si>
-  <si>
-    <t>臺灣銀行 臺北市中正區重慶南路一段 120號</t>
-  </si>
-  <si>
-    <t>95年01月 23日</t>
-  </si>
-  <si>
-    <t>98年11月 16日</t>
-  </si>
-  <si>
-    <t>99年01月 15日</t>
-  </si>
-  <si>
-    <t>102年03月 28日</t>
+    <t>台中商業銀行埔里分行南投縣埔里鎮西康路62號</t>
+  </si>
+  <si>
+    <t>臺灣銀行臺北市中正區重慶南路一段120號</t>
+  </si>
+  <si>
+    <t>95年01月23日</t>
+  </si>
+  <si>
+    <t>98年11月16日</t>
+  </si>
+  <si>
+    <t>99年01月15日</t>
+  </si>
+  <si>
+    <t>102年03月28日</t>
   </si>
   <si>
     <t>設定</t>
@@ -584,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,135 +663,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>64.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>700315</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>1540000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>1540000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>31992</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1759</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>6560187</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>752</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -758,25 +935,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -784,22 +961,22 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>245.03</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>714000</v>
@@ -810,22 +987,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>120.68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>18808851</v>
@@ -836,22 +1013,22 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>1730.85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>3345090</v>
@@ -862,25 +1039,25 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>685.44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -898,22 +1075,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -921,19 +1098,19 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
@@ -954,19 +1131,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -974,16 +1151,16 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>1615256</v>
@@ -1004,16 +1181,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1021,16 +1198,16 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1038,16 +1215,16 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1055,16 +1232,16 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1072,16 +1249,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1099,22 +1276,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1122,22 +1299,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1145,22 +1322,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>307104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1168,22 +1345,22 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>13056565</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1191,22 +1368,22 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>850002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1214,22 +1391,22 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2">
         <v>2918530</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣埔里鎮民生段00690000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣埔里鎮南光段05880003地號</t>
@@ -84,24 +87,18 @@
     <t>10000分之124</t>
   </si>
   <si>
+    <t>王琴賀</t>
+  </si>
+  <si>
     <t>蔡煌瑯</t>
   </si>
   <si>
-    <t>王琴賀</t>
-  </si>
-  <si>
-    <t>75年06月05日</t>
-  </si>
-  <si>
     <t>91年08月30日</t>
   </si>
   <si>
     <t>98年01月16日</t>
   </si>
   <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
     <t>受贈</t>
   </si>
   <si>
@@ -120,27 +117,6 @@
     <t>tmpc9fc1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>南投縣埔里鎮南光段00347000建號</t>
   </si>
   <si>
@@ -159,33 +135,12 @@
     <t>1346067</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>自用小汽車（TOYOTA型號：ALTIS)</t>
   </si>
   <si>
     <t>97年02月29日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行.</t>
   </si>
   <si>
@@ -195,42 +150,30 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
     <t>新光人壽</t>
   </si>
   <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
     <t>世紀理財變額萬能終身壽險</t>
   </si>
   <si>
     <t>美利外幣終生還本型保險</t>
   </si>
   <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>保單號碼:649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
   </si>
   <si>
@@ -240,33 +183,21 @@
     <t>保單號碼：1025099898自101年1月18日起迄今6年期</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>台中商業銀行埔里分行南投縣埔里鎮西康路62號</t>
   </si>
   <si>
+    <t>95年01月23日</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
     <t>臺灣銀行臺北市中正區重慶南路一段120號</t>
   </si>
   <si>
-    <t>95年01月23日</t>
-  </si>
-  <si>
     <t>98年11月16日</t>
   </si>
   <si>
@@ -274,9 +205,6 @@
   </si>
   <si>
     <t>102年03月28日</t>
-  </si>
-  <si>
-    <t>設定</t>
   </si>
 </sst>
 </file>
@@ -635,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,66 +612,78 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>64.84</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="2">
-        <v>700315</v>
+        <v>1540000</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -752,172 +692,143 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>1540000</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2">
-        <v>1540000</v>
+        <v>31992</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>1759</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6560187</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2">
-        <v>31992</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1759</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6560187</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2">
-        <v>752</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
+      <c r="P5" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>21.8116</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -935,129 +846,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>245.03</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="H1" s="1">
+        <v>714000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
-        <v>245.03</v>
+        <v>120.68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2">
-        <v>714000</v>
+        <v>18808851</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
-        <v>120.68</v>
+        <v>1730.85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
-        <v>18808851</v>
+        <v>3345090</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
-        <v>1730.85</v>
+        <v>685.44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3345090</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>685.44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +952,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1615256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1075,338 +1101,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3644844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1800</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2">
-        <v>850000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1615256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>92</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
-        <v>3644844</v>
+        <v>307104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2">
-        <v>307104</v>
+        <v>13056565</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
-        <v>13056565</v>
+        <v>850002</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
-        <v>850002</v>
+        <v>2918530</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>97</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2918530</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣埔里鎮民生段00690000地號</t>
+  </si>
+  <si>
     <t>南投縣埔里鎮南光段05880003地號</t>
   </si>
   <si>
@@ -87,16 +90,22 @@
     <t>10000分之124</t>
   </si>
   <si>
+    <t>蔡煌瑯</t>
+  </si>
+  <si>
     <t>王琴賀</t>
   </si>
   <si>
-    <t>蔡煌瑯</t>
+    <t>75年06月05日</t>
   </si>
   <si>
     <t>91年08月30日</t>
   </si>
   <si>
     <t>98年01月16日</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
   </si>
   <si>
     <t>受贈</t>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,37 +630,37 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>140</v>
+        <v>64.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>1540000</v>
+        <v>700315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
@@ -660,21 +669,21 @@
         <v>752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>140</v>
+        <v>64.84</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -683,28 +692,28 @@
         <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
         <v>1540000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>23</v>
@@ -713,10 +722,10 @@
         <v>752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
@@ -727,37 +736,37 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>31992</v>
+        <v>1540000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
@@ -766,51 +775,51 @@
         <v>752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0124</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1759</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
-        <v>6560187</v>
+        <v>31992</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>23</v>
@@ -819,15 +828,68 @@
         <v>752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.0124</v>
       </c>
       <c r="Q5" s="2">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1759</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6560187</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>752</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q6" s="2">
         <v>21.8116</v>
       </c>
     </row>
@@ -838,70 +900,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>245.03</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2">
+        <v>714000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>245.03</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1">
-        <v>714000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
         <v>120.68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2">
-        <v>18808851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1730.85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -910,39 +1026,146 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>18808851</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>120.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1730.85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3345090</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>21.46254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>685.44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2">
-        <v>3345090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2">
-        <v>685.44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
+      <c r="P5" s="2">
+        <v>0.0126</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8.636544</v>
       </c>
     </row>
   </sheetData>
@@ -952,29 +1175,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1">
         <v>1800</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
         <v>850000</v>
       </c>
     </row>
@@ -985,26 +1231,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1">
+        <v>1615256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
         <v>1615256</v>
       </c>
     </row>
@@ -1015,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1023,67 +1289,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>82</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1101,114 +1384,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>3644844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
-        <v>307104</v>
+        <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="2">
-        <v>13056565</v>
+        <v>307104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
-        <v>850002</v>
+        <v>13056565</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="2">
+        <v>850002</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2">
         <v>2918530</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>1346067</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>自用小汽車（TOYOTA型號：ALTIS)</t>
@@ -1175,38 +1178,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
-        <v>1800</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>850000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
@@ -1215,13 +1239,34 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1239,13 +1284,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1259,13 +1304,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1289,16 +1334,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1306,16 +1351,16 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1323,16 +1368,16 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1340,16 +1385,16 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1357,16 +1402,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1384,22 +1429,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>3644844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1407,22 +1452,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1430,22 +1475,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>307104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1453,13 +1498,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>13056565</v>
@@ -1468,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1476,22 +1521,22 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>850002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1499,22 +1544,22 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2">
         <v>2918530</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,9 @@
     <t>1346067</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>97年02月29日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行.</t>
@@ -985,7 +991,7 @@
         <v>714000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1038,7 +1044,7 @@
         <v>18808851</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1091,7 +1097,7 @@
         <v>3345090</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
@@ -1144,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1230,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
@@ -1239,7 +1245,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -1248,7 +1254,7 @@
         <v>850000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1284,13 +1290,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1304,13 +1310,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1334,16 +1340,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1351,16 +1357,16 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,16 +1374,16 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1385,16 +1391,16 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1402,16 +1408,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1429,22 +1435,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>3644844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1452,22 +1458,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1475,22 +1481,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>307104</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1498,13 +1504,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>13056565</v>
@@ -1513,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1521,22 +1527,22 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>850002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1544,22 +1550,22 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>2918530</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -159,6 +159,15 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行.</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
   </si>
   <si>
     <t>新臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1282,13 +1294,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1299,30 +1311,72 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1615256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>1615256</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>752</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1340,16 +1394,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1357,16 +1411,16 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1374,16 +1428,16 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1391,16 +1445,16 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1408,16 +1462,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1435,22 +1489,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1">
         <v>3644844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1458,22 +1512,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1481,22 +1535,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>307104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1504,13 +1558,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>13056565</v>
@@ -1519,7 +1573,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1527,22 +1581,22 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>850002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1550,22 +1604,22 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>2918530</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -11,7 +11,7 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
     <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -180,31 +180,19 @@
     <t>deposit</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>世紀理財變額萬能終身壽險</t>
+  </si>
+  <si>
+    <t>保單號碼:649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
-    <t>世紀理財變額萬能終身壽險</t>
-  </si>
-  <si>
     <t>美利外幣終生還本型保險</t>
-  </si>
-  <si>
-    <t>保單號碼:649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
   </si>
   <si>
     <t>保單號碼:649700007213自96年1月11日起迄今20年期(可隨時終止）</t>
@@ -1386,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1400,15 +1388,15 @@
         <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>53</v>
@@ -1417,61 +1405,44 @@
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1489,22 +1460,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>3644844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1512,22 +1483,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1535,22 +1506,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>307104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1558,13 +1529,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>13056565</v>
@@ -1573,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1581,22 +1552,22 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>850002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1604,22 +1575,22 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>2918530</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2013-12-17_財產申報表_tmpc9fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -180,25 +180,28 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>世紀理財變額萬能終身壽險</t>
   </si>
   <si>
-    <t>保單號碼:649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>美利外幣終生還本型保險</t>
   </si>
   <si>
-    <t>保單號碼:649700007213自96年1月11日起迄今20年期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>保單號碼：1025099898自101年1月18日起迄今6年期</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -207,22 +210,25 @@
     <t>台中商業銀行埔里分行南投縣埔里鎮西康路62號</t>
   </si>
   <si>
+    <t>臺灣銀行臺北市中正區重慶南路一段120號</t>
+  </si>
+  <si>
     <t>95年01月23日</t>
   </si>
   <si>
+    <t>98年11月16日</t>
+  </si>
+  <si>
+    <t>99年01月15日</t>
+  </si>
+  <si>
+    <t>102年03月28日</t>
+  </si>
+  <si>
     <t>設定</t>
   </si>
   <si>
-    <t>臺灣銀行臺北市中正區重慶南路一段120號</t>
-  </si>
-  <si>
-    <t>98年11月16日</t>
-  </si>
-  <si>
-    <t>99年01月15日</t>
-  </si>
-  <si>
-    <t>102年03月28日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1374,52 +1380,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>752</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1427,13 +1469,31 @@
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>752</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>57</v>
@@ -1442,7 +1502,25 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>752</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1452,67 +1530,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3644844</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>3644844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>307104</v>
@@ -1521,21 +1641,42 @@
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>752</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>13056565</v>
@@ -1544,21 +1685,42 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>752</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>850002</v>
@@ -1567,21 +1729,42 @@
         <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2">
+        <v>752</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
         <v>2918530</v>
@@ -1590,7 +1773,28 @@
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2">
+        <v>752</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
